--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -10264,7 +10264,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5865228330a_A</t>
+          <t>5865228330a_C</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10279,7 +10279,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5865228330a_C</t>
+          <t>5865228330a_A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5890628219_A</t>
+          <t>5890628219_C</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5890628219_C</t>
+          <t>5890628219_A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -10409,7 +10409,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6022828946_A</t>
+          <t>6022828946_C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6022828946_C</t>
+          <t>6022828946_A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10643,7 +10643,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b13649_A</t>
+          <t>b13649_C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b13649_C</t>
+          <t>b13649_A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b18821_A</t>
+          <t>b18821_C</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b18821_C</t>
+          <t>b18821_A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10903,7 +10903,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b18829_A</t>
+          <t>b18829_C</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10929,7 +10929,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b18829_C</t>
+          <t>b18829_A</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b18858_A</t>
+          <t>b18858_C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -11007,7 +11007,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b18858_C</t>
+          <t>b18858_A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -11059,7 +11059,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b18941_A</t>
+          <t>b18941_C</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b18941_C</t>
+          <t>b18941_A</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b18948_A</t>
+          <t>b18948_C</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -11163,7 +11163,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>b18948_B</t>
+          <t>b18948_A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -11189,7 +11189,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b18948_C</t>
+          <t>b18948_B</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b18967_A</t>
+          <t>b18967_C</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b18967_C</t>
+          <t>b18967_A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -11293,7 +11293,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b19028_A</t>
+          <t>b19028_B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -11319,7 +11319,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b19028_B</t>
+          <t>b19028_A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b19042_A</t>
+          <t>b19042_C</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b19042_C</t>
+          <t>b19042_A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>b19052_A</t>
+          <t>b19052_C</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -11449,7 +11449,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b19052_C</t>
+          <t>b19052_A</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b19183_A</t>
+          <t>b19183_C</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b19183_C</t>
+          <t>b19183_A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b23208_A</t>
+          <t>b23208_C</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b23208_C</t>
+          <t>b23208_A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b23283_A</t>
+          <t>b23283_C</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b23283_C</t>
+          <t>b23283_A</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -11761,7 +11761,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b2630_A</t>
+          <t>b2630_C</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b2630_C</t>
+          <t>b2630_A</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -11917,7 +11917,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>b41878_A</t>
+          <t>b41878_B</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b41878_B</t>
+          <t>b41878_A</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b43438_A</t>
+          <t>b43438_B</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b43438_B</t>
+          <t>b43438_A</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -12125,7 +12125,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b4541_A</t>
+          <t>b4541_C</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -12151,7 +12151,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b4541_C</t>
+          <t>b4541_A</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b4588_A</t>
+          <t>b4588_C</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -12229,7 +12229,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b4588_C</t>
+          <t>b4588_A</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -12281,7 +12281,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b4602_A</t>
+          <t>b4602_C</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -12307,7 +12307,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b4602_C</t>
+          <t>b4602_A</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -12359,7 +12359,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b4619_A</t>
+          <t>b4619_C</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -12385,7 +12385,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b4619_C</t>
+          <t>b4619_A</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -12437,7 +12437,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b46703_A</t>
+          <t>b46703_C</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b46703_C</t>
+          <t>b46703_A</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>b4725_A</t>
+          <t>b4725_C</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>b4725_B</t>
+          <t>b4725_A</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>b4725_C</t>
+          <t>b4725_B</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b4760_A</t>
+          <t>b4760_C</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b4760_C</t>
+          <t>b4760_A</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b47668_A</t>
+          <t>b47668_C</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -12697,7 +12697,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b47668_C</t>
+          <t>b47668_A</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -12749,7 +12749,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>b47983_A</t>
+          <t>b47983_C</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -12801,7 +12801,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>b47983_B</t>
+          <t>b47983_A</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b47983_C</t>
+          <t>b47983_B</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -12853,7 +12853,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b4808_A</t>
+          <t>b4808_C</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -12879,7 +12879,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b4808_C</t>
+          <t>b4808_A</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -12931,7 +12931,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b4829_A</t>
+          <t>b4829_C</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b4829_C</t>
+          <t>b4829_A</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b4832_A</t>
+          <t>b4832_C</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>b4832_C</t>
+          <t>b4832_A</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b4833_A</t>
+          <t>b4833_C</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b4833_C</t>
+          <t>b4833_A</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b4837_A</t>
+          <t>b4837_C</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b4837_C</t>
+          <t>b4837_A</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -13243,7 +13243,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b4862_A</t>
+          <t>b4862_C</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -13269,7 +13269,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b4862_C</t>
+          <t>b4862_A</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b4877_A</t>
+          <t>b4877_C</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b4877_C</t>
+          <t>b4877_A</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b4888_A</t>
+          <t>b4888_C</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_C</t>
+          <t>b4888_A</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -13477,7 +13477,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b4909_A</t>
+          <t>b4909_C</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -13503,7 +13503,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>b4909_C</t>
+          <t>b4909_A</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>b51854_A</t>
+          <t>b51854_C</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b51854_C</t>
+          <t>b51854_A</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -13633,7 +13633,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b5213_A</t>
+          <t>b5213_C</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b5213_C</t>
+          <t>b5213_A</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -13711,7 +13711,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b5220_A</t>
+          <t>b5220_C</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b5220_C</t>
+          <t>b5220_A</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -13789,7 +13789,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b56591_A</t>
+          <t>b56591_C</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -13841,7 +13841,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b56591_C</t>
+          <t>b56591_A</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b61161_A</t>
+          <t>b61161_C</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -14049,7 +14049,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b61161_C</t>
+          <t>b61161_A</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>b61423_A</t>
+          <t>b61423_C</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b61423_C</t>
+          <t>b61423_A</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fdr_bus_A</t>
+          <t>fdr_bus_C</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fdr_bus_C</t>
+          <t>fdr_bus_A</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -14283,7 +14283,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>feederhead_A</t>
+          <t>feederhead_C</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feederhead_C</t>
+          <t>feederhead_A</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -14361,7 +14361,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ls_bus_A</t>
+          <t>ls_bus_C</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -14439,7 +14439,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ls_bus_C</t>
+          <t>ls_bus_A</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pv1_A</t>
+          <t>pv1_C</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pv1_C</t>
+          <t>pv1_A</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pv2_A</t>
+          <t>pv2_C</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -14595,7 +14595,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pv2_C</t>
+          <t>pv2_A</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pv3_A</t>
+          <t>pv3_C</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pv3_C</t>
+          <t>pv3_A</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pv4_A</t>
+          <t>pv4_C</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -14751,7 +14751,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pv4_C</t>
+          <t>pv4_A</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -14803,7 +14803,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>s_A</t>
+          <t>s_C</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>s_C</t>
+          <t>s_A</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -14881,7 +14881,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -7597,7 +7597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:AA62"/>
+  <dimension ref="A11:AA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9185,6 +9185,2446 @@
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>b18858_A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>b18858_B</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>b18858_C</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6022828946_A</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>6022828946_B</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>6022828946_C</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>4.52066</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.11966</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2.42239</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.63709</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O62" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>b19183_A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>b19183_B</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>b19183_C</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>b13649_A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>b13649_B</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>b13649_C</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.18827</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5434600000000001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.05852</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.17168</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>b4833_A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>b4833_B</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>b4833_C</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>b18821_A</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>b18821_B</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>b18821_C</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.05728</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.07204000000000001</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01376</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.02672</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>b4837_A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>b4837_B</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>b4837_C</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>b18829_A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>b18829_B</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>b18829_C</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.05428</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.09397999999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01373</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.03151</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>b18829_A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>b18829_B</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>b18829_C</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>b18858_A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>b18858_B</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>b18858_C</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1.33302</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.5021</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.71377</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.58678</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6022828946_A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>6022828946_B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6022828946_C</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>b18941_A</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>b18941_B</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>b18941_C</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.05825</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.02402</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O67" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>b18941_A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>b18941_B</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>b18941_C</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>b18948_A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>b18948_B</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>b18948_C</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3095</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.2852</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.23474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.11777</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O68" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>b18948_A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>b18948_B</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>b18948_C</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>b18967_A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>b18967_B</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>b18967_C</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.8703</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.8546</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.65279</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.33845</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>b4808_A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>b4808_B</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>b4808_C</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>b19042_A</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>b19042_B</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>b19042_C</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0.58595</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.7358</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.40688</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2346</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>b4760_A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>b4760_B</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>b4760_C</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>b19052_A</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>b19052_B</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>b19052_C</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.96222</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.18225</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.66847</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.38052</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>b4760_A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>b4760_B</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>b4760_C</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>b19183_A</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>b19183_B</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>b19183_C</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0.05599</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.17393</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.01965</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.05722</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O72" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>b4837_A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>b4837_B</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>b4837_C</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>b23208_A</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>b23208_B</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>b23208_C</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1.08207</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.07058</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.70762</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.35589</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>b5213_A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>b5213_B</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>b5213_C</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>b23283_A</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>b23283_B</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>b23283_C</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0.61492</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.35274</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.22388</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.44063</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O74" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>b4833_A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>b4833_B</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>b4833_C</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5865228330a_A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>5865228330a_B</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>5865228330a_C</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>0.19871</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1698</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.12398</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.07856</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O75" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>b23283_A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>b23283_B</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>b23283_C</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>b2630_A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>b2630_B</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>b2630_C</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>0.30313</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.11189</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.10962</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.34618</v>
+      </c>
+      <c r="N76" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>b23208_A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>b23208_B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>b23208_C</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>5890628219_A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>5890628219_B</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>5890628219_C</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>0.25944</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.38941</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.15661</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.14118</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>b4588_A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>b4588_B</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>b4588_C</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>b4541_A</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>b4541_B</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>b4541_C</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.56621</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.56093</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.9242</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.79857</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O78" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>b4602_A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>b4602_B</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>b4602_C</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>b4588_A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>b4588_B</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>b4588_C</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0.38659</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.66387</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.2174</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.20714</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O79" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>b4725_A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>b4725_B</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>b4725_C</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>b4602_A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>b4602_B</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>b4602_C</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0.16398</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.45992</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.04289</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.13224</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O80" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>b4602_A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>b4602_B</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>b4602_C</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>b4619_A</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>b4619_B</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>b4619_C</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0.56131</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.81533</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.36815</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.26046</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O81" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>b18829_A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>b18829_B</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>b18829_C</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>b46703_A</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>b46703_B</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>b46703_C</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0.34384</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.43356</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.24301</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.13951</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O82" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>b13649_A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>b13649_B</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>b13649_C</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>b4725_A</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>b4725_B</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>b4725_C</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0.04746</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.13262</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01333</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.04006</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O83" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>b4808_A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>b4808_B</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>b4808_C</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>b4760_A</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>b4760_B</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>b4760_C</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0.20572</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.60114</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.07172000000000001</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.20177</v>
+      </c>
+      <c r="N84" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O84" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>b4808_A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>b4808_B</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>b4808_C</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>b47668_A</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>b47668_B</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>b47668_C</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1.04485</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.31719</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.73226</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.42302</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>b23208_A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>b23208_B</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>b23208_C</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>b47983_A</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>b47983_B</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>b47983_C</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0.17435</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1963</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.11756</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.06383</v>
+      </c>
+      <c r="N86" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O86" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>b4808_A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>b4808_B</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>b4808_C</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>b4829_A</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>b4829_B</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>b4829_C</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0.4942</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.5470699999999999</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.11672</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.20892</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O87" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>b4829_A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>b4829_B</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>b4829_C</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>b4832_A</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>b4832_B</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>b4832_C</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0.10053</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.10769</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.02455</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.04406</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O88" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>b4832_A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>b4832_B</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>b4832_C</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>b4833_A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>b4833_B</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>b4833_C</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02944</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.03288</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.00716</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O89" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>b18821_A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>b18821_B</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>b18821_C</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>b4837_A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>b4837_B</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>b4837_C</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02401</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.03045</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.00575</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.01124</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O90" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>b4862_A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>b4862_B</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>b4862_C</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>b4808_A</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>b4808_B</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>b4808_C</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0.10441</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.09634</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.02848</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.04473</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O91" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>b4877_A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>b4877_B</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>b4877_C</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>b4862_A</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>b4862_B</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>b4862_C</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.43083</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.12726</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.21042</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O92" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>b4888_A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>b4888_B</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>b4888_C</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>b4877_A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>b4877_B</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>b4877_C</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.22838</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.23031</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.05956</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.09408</v>
+      </c>
+      <c r="N93" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O93" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>b4909_A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>b4909_B</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>b4909_C</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>b4888_A</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>b4888_B</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>b4888_C</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.47178</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.50951</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.12584</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.20309</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O94" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>b23283_A</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>b23283_B</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>b23283_C</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>b4909_A</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>b4909_B</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>b4909_C</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1.82945</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.6391</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.52262</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.92222</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O95" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>b23208_A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>b23208_B</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>b23208_C</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>b51854_A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>b51854_B</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>b51854_C</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0.34315</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.38748</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.2312</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.12578</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O96" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>b5220_A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>b5220_B</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>b5220_C</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>b5213_A</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>b5213_B</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>b5213_C</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0.10968</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.31426</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.04895</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.10193</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O97" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>feederhead_A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>feederhead_B</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>feederhead_C</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>b5220_A</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>b5220_B</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>b5220_C</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.05959</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.00876</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.01862</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O98" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>b4833_A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>b4833_B</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>b4833_C</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>b56591_A</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>b56591_B</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>b56591_C</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.30444</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.37679</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.21159</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.12085</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O99" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>b18821_A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>b18821_B</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>b18821_C</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>b61161_A</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>b61161_B</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>b61161_C</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.15888</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.19962</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.11037</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.06365999999999999</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O100" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>b18821_A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>b18821_B</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>b18821_C</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>b61423_A</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>b61423_B</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>b61423_C</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02625</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.03322</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.01822</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.01056</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6.2505127e-12</v>
+      </c>
+      <c r="O101" t="n">
+        <v>7.4078755e-12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>End of Three-Phase Line with Sequential Data</t>
         </is>
@@ -10264,7 +12704,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5865228330a_C</t>
+          <t>5865228330a_B</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10279,7 +12719,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -10290,7 +12730,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5865228330a_B</t>
+          <t>5865228330a_A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10305,7 +12745,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -10316,7 +12756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5865228330a_A</t>
+          <t>5865228330a_C</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10331,7 +12771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -10342,7 +12782,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5890628219_C</t>
+          <t>5890628219_B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10357,7 +12797,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -10368,7 +12808,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5890628219_B</t>
+          <t>5890628219_A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -10383,7 +12823,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -10394,7 +12834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5890628219_A</t>
+          <t>5890628219_C</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -10409,7 +12849,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -10576,7 +13016,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6022828946_C</t>
+          <t>6022828946_B</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10591,7 +13031,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -10602,7 +13042,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6022828946_B</t>
+          <t>6022828946_A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10617,7 +13057,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -10628,7 +13068,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6022828946_A</t>
+          <t>6022828946_C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10643,7 +13083,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -10680,7 +13120,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b13649_C</t>
+          <t>b13649_B</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10695,7 +13135,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -10706,7 +13146,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b13649_B</t>
+          <t>b13649_A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10721,7 +13161,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -10732,7 +13172,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b13649_A</t>
+          <t>b13649_C</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10747,7 +13187,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -10836,7 +13276,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b18821_C</t>
+          <t>b18821_B</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -10851,7 +13291,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -10862,7 +13302,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b18821_B</t>
+          <t>b18821_A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10877,7 +13317,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -10888,7 +13328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b18821_A</t>
+          <t>b18821_C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10903,7 +13343,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -10914,7 +13354,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b18829_C</t>
+          <t>b18829_B</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10929,7 +13369,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -10940,7 +13380,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>b18829_B</t>
+          <t>b18829_A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -10955,7 +13395,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -10966,7 +13406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b18829_A</t>
+          <t>b18829_C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -10981,7 +13421,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -10992,7 +13432,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b18858_C</t>
+          <t>b18858_B</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -11007,7 +13447,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -11018,7 +13458,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>b18858_B</t>
+          <t>b18858_A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -11033,7 +13473,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -11044,7 +13484,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b18858_A</t>
+          <t>b18858_C</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -11059,7 +13499,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -11070,7 +13510,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b18941_C</t>
+          <t>b18941_B</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -11085,7 +13525,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -11096,7 +13536,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b18941_B</t>
+          <t>b18941_A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -11111,7 +13551,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -11122,7 +13562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b18941_A</t>
+          <t>b18941_C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -11137,7 +13577,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -11226,7 +13666,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b18967_C</t>
+          <t>b18967_B</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -11241,7 +13681,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -11252,7 +13692,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b18967_B</t>
+          <t>b18967_A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -11267,7 +13707,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -11278,7 +13718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b18967_A</t>
+          <t>b18967_C</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -11293,7 +13733,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -11356,7 +13796,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b19042_C</t>
+          <t>b19042_B</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -11371,7 +13811,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -11382,7 +13822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>b19042_B</t>
+          <t>b19042_A</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -11397,7 +13837,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -11408,7 +13848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b19042_A</t>
+          <t>b19042_C</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -11423,7 +13863,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -11434,7 +13874,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>b19052_C</t>
+          <t>b19052_B</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -11449,7 +13889,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -11460,7 +13900,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>b19052_B</t>
+          <t>b19052_A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -11475,7 +13915,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -11486,7 +13926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b19052_A</t>
+          <t>b19052_C</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -11501,7 +13941,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -11512,7 +13952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b19183_C</t>
+          <t>b19183_B</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -11527,7 +13967,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -11538,7 +13978,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>b19183_B</t>
+          <t>b19183_A</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -11553,7 +13993,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -11564,7 +14004,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b19183_A</t>
+          <t>b19183_C</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -11579,7 +14019,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -11616,7 +14056,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b23208_C</t>
+          <t>b23208_B</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -11631,7 +14071,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -11642,7 +14082,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>b23208_B</t>
+          <t>b23208_A</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -11657,7 +14097,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -11668,7 +14108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b23208_A</t>
+          <t>b23208_C</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -11683,7 +14123,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -11694,7 +14134,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b23283_C</t>
+          <t>b23283_B</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -11709,7 +14149,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -11720,7 +14160,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>b23283_B</t>
+          <t>b23283_A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -11735,7 +14175,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -11746,7 +14186,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b23283_A</t>
+          <t>b23283_C</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -11761,7 +14201,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -11850,7 +14290,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b2630_C</t>
+          <t>b2630_B</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -11865,7 +14305,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -11876,7 +14316,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>b2630_B</t>
+          <t>b2630_A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -11891,7 +14331,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -11902,7 +14342,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b2630_A</t>
+          <t>b2630_C</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -11917,7 +14357,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -12136,7 +14576,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b4541_C</t>
+          <t>b4541_B</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -12151,7 +14591,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -12162,7 +14602,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>b4541_B</t>
+          <t>b4541_A</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -12177,7 +14617,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -12188,7 +14628,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b4541_A</t>
+          <t>b4541_C</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -12203,7 +14643,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -12214,7 +14654,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b4588_C</t>
+          <t>b4588_B</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -12229,7 +14669,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -12240,7 +14680,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>b4588_B</t>
+          <t>b4588_A</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -12255,7 +14695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -12266,7 +14706,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b4588_A</t>
+          <t>b4588_C</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -12281,7 +14721,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -12292,7 +14732,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b4602_C</t>
+          <t>b4602_B</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -12307,7 +14747,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -12318,7 +14758,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>b4602_B</t>
+          <t>b4602_A</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -12333,7 +14773,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -12344,7 +14784,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b4602_A</t>
+          <t>b4602_C</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -12359,7 +14799,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -12370,7 +14810,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b4619_C</t>
+          <t>b4619_B</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -12385,7 +14825,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -12396,7 +14836,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>b4619_B</t>
+          <t>b4619_A</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -12411,7 +14851,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -12422,7 +14862,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b4619_A</t>
+          <t>b4619_C</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -12437,7 +14877,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -12448,7 +14888,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b46703_C</t>
+          <t>b46703_B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -12463,7 +14903,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -12474,7 +14914,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>b46703_B</t>
+          <t>b46703_A</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -12489,7 +14929,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -12500,7 +14940,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b46703_A</t>
+          <t>b46703_C</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -12515,7 +14955,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -12604,7 +15044,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b4760_C</t>
+          <t>b4760_B</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -12619,7 +15059,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -12630,7 +15070,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>b4760_B</t>
+          <t>b4760_A</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -12645,7 +15085,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -12656,7 +15096,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b4760_A</t>
+          <t>b4760_C</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -12671,7 +15111,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -12682,7 +15122,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b47668_C</t>
+          <t>b47668_B</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -12697,7 +15137,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -12708,7 +15148,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>b47668_B</t>
+          <t>b47668_A</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -12723,7 +15163,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -12734,7 +15174,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b47668_A</t>
+          <t>b47668_C</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -12749,7 +15189,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -12864,7 +15304,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b4808_C</t>
+          <t>b4808_B</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -12879,7 +15319,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -12890,7 +15330,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>b4808_B</t>
+          <t>b4808_A</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -12905,7 +15345,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -12916,7 +15356,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b4808_A</t>
+          <t>b4808_C</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -12931,7 +15371,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -12942,7 +15382,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b4829_C</t>
+          <t>b4829_B</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -12957,7 +15397,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -12968,7 +15408,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>b4829_B</t>
+          <t>b4829_A</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -12983,7 +15423,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -12994,7 +15434,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b4829_A</t>
+          <t>b4829_C</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -13009,7 +15449,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -13020,7 +15460,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b4832_C</t>
+          <t>b4832_B</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -13035,7 +15475,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -13046,7 +15486,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>b4832_B</t>
+          <t>b4832_A</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -13061,7 +15501,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -13072,7 +15512,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>b4832_A</t>
+          <t>b4832_C</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -13087,7 +15527,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -13098,7 +15538,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b4833_C</t>
+          <t>b4833_B</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -13113,7 +15553,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -13124,7 +15564,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>b4833_B</t>
+          <t>b4833_A</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -13139,7 +15579,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -13150,7 +15590,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b4833_A</t>
+          <t>b4833_C</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -13165,7 +15605,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -13176,7 +15616,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b4837_C</t>
+          <t>b4837_B</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -13191,7 +15631,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -13202,7 +15642,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>b4837_B</t>
+          <t>b4837_A</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -13217,7 +15657,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -13228,7 +15668,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b4837_A</t>
+          <t>b4837_C</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -13243,7 +15683,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -13254,7 +15694,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b4862_C</t>
+          <t>b4862_B</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -13269,7 +15709,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -13280,7 +15720,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>b4862_B</t>
+          <t>b4862_A</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -13295,7 +15735,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -13306,7 +15746,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b4862_A</t>
+          <t>b4862_C</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -13321,7 +15761,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -13332,7 +15772,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b4877_C</t>
+          <t>b4877_B</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -13347,7 +15787,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -13358,7 +15798,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>b4877_B</t>
+          <t>b4877_A</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -13373,7 +15813,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -13384,7 +15824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b4877_A</t>
+          <t>b4877_C</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -13399,7 +15839,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -13436,7 +15876,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>b4888_B</t>
+          <t>b4888_A</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -13451,7 +15891,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -13462,7 +15902,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_A</t>
+          <t>b4888_B</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -13477,7 +15917,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -13488,7 +15928,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b4909_C</t>
+          <t>b4909_B</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -13503,7 +15943,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -13514,7 +15954,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>b4909_B</t>
+          <t>b4909_A</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -13529,7 +15969,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -13540,7 +15980,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>b4909_A</t>
+          <t>b4909_C</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -13555,7 +15995,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -13566,7 +16006,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>b51854_C</t>
+          <t>b51854_B</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -13581,7 +16021,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -13592,7 +16032,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>b51854_B</t>
+          <t>b51854_A</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -13607,7 +16047,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -13618,7 +16058,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b51854_A</t>
+          <t>b51854_C</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -13633,7 +16073,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -13644,7 +16084,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b5213_C</t>
+          <t>b5213_B</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -13659,7 +16099,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -13670,7 +16110,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>b5213_B</t>
+          <t>b5213_A</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -13685,7 +16125,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -13696,7 +16136,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b5213_A</t>
+          <t>b5213_C</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -13711,7 +16151,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -13722,7 +16162,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b5220_C</t>
+          <t>b5220_B</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -13737,7 +16177,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -13748,7 +16188,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>b5220_B</t>
+          <t>b5220_A</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -13763,7 +16203,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -13774,7 +16214,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b5220_A</t>
+          <t>b5220_C</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -13789,7 +16229,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -13826,7 +16266,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b56591_C</t>
+          <t>b56591_B</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -13841,7 +16281,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -13852,7 +16292,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>b56591_B</t>
+          <t>b56591_A</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -13867,7 +16307,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -13878,7 +16318,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b56591_A</t>
+          <t>b56591_C</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -13893,7 +16333,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -14034,7 +16474,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b61161_C</t>
+          <t>b61161_B</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -14049,7 +16489,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -14060,7 +16500,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>b61161_B</t>
+          <t>b61161_A</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -14075,7 +16515,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -14086,7 +16526,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b61161_A</t>
+          <t>b61161_C</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -14101,7 +16541,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -14112,7 +16552,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>b61423_C</t>
+          <t>b61423_B</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -14127,7 +16567,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -14138,7 +16578,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>b61423_B</t>
+          <t>b61423_A</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -14153,7 +16593,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -14164,7 +16604,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b61423_A</t>
+          <t>b61423_C</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -14179,7 +16619,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -14216,7 +16656,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fdr_bus_C</t>
+          <t>fdr_bus_B</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -14231,7 +16671,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -14242,7 +16682,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>fdr_bus_B</t>
+          <t>fdr_bus_A</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -14257,7 +16697,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -14268,7 +16708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fdr_bus_A</t>
+          <t>fdr_bus_C</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -14283,7 +16723,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -14294,7 +16734,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>feederhead_C</t>
+          <t>feederhead_B</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -14309,7 +16749,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -14320,7 +16760,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>feederhead_B</t>
+          <t>feederhead_A</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -14335,7 +16775,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -14346,7 +16786,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feederhead_A</t>
+          <t>feederhead_C</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -14361,7 +16801,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -14424,7 +16864,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ls_bus_C</t>
+          <t>ls_bus_B</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -14439,7 +16879,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -14450,7 +16890,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ls_bus_B</t>
+          <t>ls_bus_A</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -14465,7 +16905,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -14476,7 +16916,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ls_bus_A</t>
+          <t>ls_bus_C</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -14491,7 +16931,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -14502,7 +16942,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pv1_C</t>
+          <t>pv1_B</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -14517,7 +16957,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -14528,7 +16968,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>pv1_B</t>
+          <t>pv1_A</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -14543,7 +16983,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -14554,7 +16994,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pv1_A</t>
+          <t>pv1_C</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -14569,7 +17009,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -14580,7 +17020,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pv2_C</t>
+          <t>pv2_B</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -14595,7 +17035,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -14606,7 +17046,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>pv2_B</t>
+          <t>pv2_A</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -14621,7 +17061,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -14632,7 +17072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pv2_A</t>
+          <t>pv2_C</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -14647,7 +17087,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -14658,7 +17098,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pv3_C</t>
+          <t>pv3_B</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -14673,7 +17113,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -14684,7 +17124,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>pv3_B</t>
+          <t>pv3_A</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -14699,7 +17139,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -14710,7 +17150,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pv3_A</t>
+          <t>pv3_C</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -14725,7 +17165,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -14736,7 +17176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pv4_C</t>
+          <t>pv4_B</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -14751,7 +17191,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -14762,7 +17202,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>pv4_B</t>
+          <t>pv4_A</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -14777,7 +17217,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -14788,7 +17228,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pv4_A</t>
+          <t>pv4_C</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -14803,7 +17243,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -14814,7 +17254,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>s_C</t>
+          <t>s_B</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -14829,7 +17269,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -14840,7 +17280,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>s_B</t>
+          <t>s_A</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -14855,7 +17295,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -14866,7 +17306,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>s_A</t>
+          <t>s_C</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -14881,7 +17321,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -12039,16 +12039,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0.05749999967845845</v>
@@ -12134,16 +12134,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0.0575</v>
@@ -12229,16 +12229,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0.05750000032154155</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0.05750000160770774</v>
@@ -12419,16 +12419,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0.1163</v>
@@ -13588,7 +13588,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b18948_C</t>
+          <t>b18948_B</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b18948_B</t>
+          <t>b18948_C</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>b4725_C</t>
+          <t>b4725_B</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>b4725_B</t>
+          <t>b4725_C</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>b47983_C</t>
+          <t>b47983_B</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b47983_B</t>
+          <t>b47983_C</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b4888_C</t>
+          <t>b4888_B</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_B</t>
+          <t>b4888_C</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -12410,25 +12410,25 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>0.1163</v>
@@ -12704,7 +12704,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5865228330a_B</t>
+          <t>5865228330a_C</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -12719,7 +12719,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5865228330a_C</t>
+          <t>5865228330a_B</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5890628219_B</t>
+          <t>5890628219_C</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -12797,7 +12797,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5890628219_C</t>
+          <t>5890628219_B</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12849,7 +12849,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6022828946_B</t>
+          <t>6022828946_C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6022828946_C</t>
+          <t>6022828946_B</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -13083,7 +13083,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b13649_B</t>
+          <t>b13649_C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b13649_C</t>
+          <t>b13649_B</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13187,7 +13187,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b18821_B</t>
+          <t>b18821_C</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b18821_C</t>
+          <t>b18821_B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13343,7 +13343,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b18829_B</t>
+          <t>b18829_C</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b18829_C</t>
+          <t>b18829_B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b18858_B</t>
+          <t>b18858_C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b18858_C</t>
+          <t>b18858_B</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13499,7 +13499,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b18941_B</t>
+          <t>b18941_C</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b18941_C</t>
+          <t>b18941_B</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13577,7 +13577,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b18948_B</t>
+          <t>b18948_C</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b18948_C</t>
+          <t>b18948_B</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b18967_B</t>
+          <t>b18967_C</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b18967_C</t>
+          <t>b18967_B</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b19028_B</t>
+          <t>b19028_A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b19028_A</t>
+          <t>b19028_B</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b19042_B</t>
+          <t>b19042_C</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b19042_C</t>
+          <t>b19042_B</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -13863,7 +13863,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>b19052_B</t>
+          <t>b19052_C</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b19052_C</t>
+          <t>b19052_B</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b19183_B</t>
+          <t>b19183_C</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b19183_C</t>
+          <t>b19183_B</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14019,7 +14019,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b23208_B</t>
+          <t>b23208_C</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b23208_C</t>
+          <t>b23208_B</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b23283_B</t>
+          <t>b23283_C</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b23283_C</t>
+          <t>b23283_B</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -14201,7 +14201,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b2630_B</t>
+          <t>b2630_C</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b2630_C</t>
+          <t>b2630_B</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>b41878_B</t>
+          <t>b41878_A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b41878_A</t>
+          <t>b41878_B</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b43438_B</t>
+          <t>b43438_A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14539,7 +14539,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b43438_A</t>
+          <t>b43438_B</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b4541_B</t>
+          <t>b4541_C</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b4541_C</t>
+          <t>b4541_B</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b4588_B</t>
+          <t>b4588_C</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -14669,7 +14669,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b4588_C</t>
+          <t>b4588_B</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b4602_B</t>
+          <t>b4602_C</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b4602_C</t>
+          <t>b4602_B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b4619_B</t>
+          <t>b4619_C</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b4619_C</t>
+          <t>b4619_B</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b46703_B</t>
+          <t>b46703_C</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b46703_C</t>
+          <t>b46703_B</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -14955,7 +14955,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>b4725_B</t>
+          <t>b4725_C</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>b4725_C</t>
+          <t>b4725_B</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b4760_B</t>
+          <t>b4760_C</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -15059,7 +15059,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b4760_C</t>
+          <t>b4760_B</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -15111,7 +15111,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b47668_B</t>
+          <t>b47668_C</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b47668_C</t>
+          <t>b47668_B</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>b47983_B</t>
+          <t>b47983_C</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b47983_C</t>
+          <t>b47983_B</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b4808_B</t>
+          <t>b4808_C</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b4808_C</t>
+          <t>b4808_B</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b4829_B</t>
+          <t>b4829_C</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b4829_C</t>
+          <t>b4829_B</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b4832_B</t>
+          <t>b4832_C</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -15475,7 +15475,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>b4832_C</t>
+          <t>b4832_B</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b4833_B</t>
+          <t>b4833_C</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -15553,7 +15553,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b4833_C</t>
+          <t>b4833_B</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b4837_B</t>
+          <t>b4837_C</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b4837_C</t>
+          <t>b4837_B</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b4862_B</t>
+          <t>b4862_C</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b4862_C</t>
+          <t>b4862_B</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -15761,7 +15761,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b4877_B</t>
+          <t>b4877_C</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b4877_C</t>
+          <t>b4877_B</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -15839,7 +15839,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b4888_B</t>
+          <t>b4888_C</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_C</t>
+          <t>b4888_B</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b4909_B</t>
+          <t>b4909_C</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>b4909_C</t>
+          <t>b4909_B</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>b51854_B</t>
+          <t>b51854_C</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b51854_C</t>
+          <t>b51854_B</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -16073,7 +16073,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b5213_B</t>
+          <t>b5213_C</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -16099,7 +16099,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b5213_C</t>
+          <t>b5213_B</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b5220_B</t>
+          <t>b5220_C</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b5220_C</t>
+          <t>b5220_B</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -16229,7 +16229,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b56591_B</t>
+          <t>b56591_C</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b56591_C</t>
+          <t>b56591_B</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b61161_B</t>
+          <t>b61161_C</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b61161_C</t>
+          <t>b61161_B</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>b61423_B</t>
+          <t>b61423_C</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b61423_C</t>
+          <t>b61423_B</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fdr_bus_B</t>
+          <t>fdr_bus_C</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fdr_bus_C</t>
+          <t>fdr_bus_B</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>feederhead_B</t>
+          <t>feederhead_C</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feederhead_C</t>
+          <t>feederhead_B</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -16801,7 +16801,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ls_bus_B</t>
+          <t>ls_bus_C</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -16879,7 +16879,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ls_bus_C</t>
+          <t>ls_bus_B</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pv1_B</t>
+          <t>pv1_C</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pv1_C</t>
+          <t>pv1_B</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -17009,7 +17009,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pv2_B</t>
+          <t>pv2_C</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -17035,7 +17035,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pv2_C</t>
+          <t>pv2_B</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -17087,7 +17087,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pv3_B</t>
+          <t>pv3_C</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -17113,7 +17113,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pv3_C</t>
+          <t>pv3_B</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -17165,7 +17165,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pv4_B</t>
+          <t>pv4_C</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pv4_C</t>
+          <t>pv4_B</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>s_B</t>
+          <t>s_C</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>s_C</t>
+          <t>s_B</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -12704,7 +12704,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5865228330a_C</t>
+          <t>5865228330a_B</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -12719,7 +12719,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5865228330a_B</t>
+          <t>5865228330a_C</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5890628219_C</t>
+          <t>5890628219_B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -12797,7 +12797,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5890628219_B</t>
+          <t>5890628219_C</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12849,7 +12849,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6022828946_C</t>
+          <t>6022828946_B</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6022828946_B</t>
+          <t>6022828946_C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -13083,7 +13083,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b13649_C</t>
+          <t>b13649_B</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b13649_B</t>
+          <t>b13649_C</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13187,7 +13187,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b18821_C</t>
+          <t>b18821_B</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b18821_B</t>
+          <t>b18821_C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13343,7 +13343,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b18829_C</t>
+          <t>b18829_B</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b18829_B</t>
+          <t>b18829_C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b18858_C</t>
+          <t>b18858_B</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b18858_B</t>
+          <t>b18858_C</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13499,7 +13499,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b18941_C</t>
+          <t>b18941_B</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b18941_B</t>
+          <t>b18941_C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13577,7 +13577,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b18948_C</t>
+          <t>b18948_B</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b18948_B</t>
+          <t>b18948_C</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b18967_C</t>
+          <t>b18967_B</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b18967_B</t>
+          <t>b18967_C</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b19028_A</t>
+          <t>b19028_B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b19028_B</t>
+          <t>b19028_A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b19042_C</t>
+          <t>b19042_B</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b19042_B</t>
+          <t>b19042_C</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -13863,7 +13863,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>b19052_C</t>
+          <t>b19052_B</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b19052_B</t>
+          <t>b19052_C</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b19183_C</t>
+          <t>b19183_B</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b19183_B</t>
+          <t>b19183_C</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14019,7 +14019,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b23208_C</t>
+          <t>b23208_B</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b23208_B</t>
+          <t>b23208_C</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b23283_C</t>
+          <t>b23283_B</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b23283_B</t>
+          <t>b23283_C</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -14201,7 +14201,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b2630_C</t>
+          <t>b2630_B</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b2630_B</t>
+          <t>b2630_C</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>b41878_A</t>
+          <t>b41878_B</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b41878_B</t>
+          <t>b41878_A</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b43438_A</t>
+          <t>b43438_B</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14539,7 +14539,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b43438_B</t>
+          <t>b43438_A</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b4541_C</t>
+          <t>b4541_B</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b4541_B</t>
+          <t>b4541_C</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b4588_C</t>
+          <t>b4588_B</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -14669,7 +14669,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b4588_B</t>
+          <t>b4588_C</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b4602_C</t>
+          <t>b4602_B</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b4602_B</t>
+          <t>b4602_C</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b4619_C</t>
+          <t>b4619_B</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b4619_B</t>
+          <t>b4619_C</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b46703_C</t>
+          <t>b46703_B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b46703_B</t>
+          <t>b46703_C</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -14955,7 +14955,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>b4725_C</t>
+          <t>b4725_B</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>b4725_B</t>
+          <t>b4725_C</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b4760_C</t>
+          <t>b4760_B</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -15059,7 +15059,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b4760_B</t>
+          <t>b4760_C</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -15111,7 +15111,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b47668_C</t>
+          <t>b47668_B</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b47668_B</t>
+          <t>b47668_C</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>b47983_C</t>
+          <t>b47983_B</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b47983_B</t>
+          <t>b47983_C</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b4808_C</t>
+          <t>b4808_B</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b4808_B</t>
+          <t>b4808_C</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b4829_C</t>
+          <t>b4829_B</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b4829_B</t>
+          <t>b4829_C</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b4832_C</t>
+          <t>b4832_B</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -15475,7 +15475,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>b4832_B</t>
+          <t>b4832_C</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b4833_C</t>
+          <t>b4833_B</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -15553,7 +15553,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b4833_B</t>
+          <t>b4833_C</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b4837_C</t>
+          <t>b4837_B</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b4837_B</t>
+          <t>b4837_C</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b4862_C</t>
+          <t>b4862_B</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b4862_B</t>
+          <t>b4862_C</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -15761,7 +15761,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b4877_C</t>
+          <t>b4877_B</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b4877_B</t>
+          <t>b4877_C</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -15839,7 +15839,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b4888_C</t>
+          <t>b4888_B</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_B</t>
+          <t>b4888_C</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b4909_C</t>
+          <t>b4909_B</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>b4909_B</t>
+          <t>b4909_C</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>b51854_C</t>
+          <t>b51854_B</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b51854_B</t>
+          <t>b51854_C</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -16073,7 +16073,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b5213_C</t>
+          <t>b5213_B</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -16099,7 +16099,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b5213_B</t>
+          <t>b5213_C</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b5220_C</t>
+          <t>b5220_B</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b5220_B</t>
+          <t>b5220_C</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -16229,7 +16229,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b56591_C</t>
+          <t>b56591_B</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b56591_B</t>
+          <t>b56591_C</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b61161_C</t>
+          <t>b61161_B</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b61161_B</t>
+          <t>b61161_C</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>b61423_C</t>
+          <t>b61423_B</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b61423_B</t>
+          <t>b61423_C</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fdr_bus_C</t>
+          <t>fdr_bus_B</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fdr_bus_B</t>
+          <t>fdr_bus_C</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>feederhead_C</t>
+          <t>feederhead_B</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feederhead_B</t>
+          <t>feederhead_C</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -16801,7 +16801,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ls_bus_C</t>
+          <t>ls_bus_B</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -16879,7 +16879,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ls_bus_B</t>
+          <t>ls_bus_C</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pv1_C</t>
+          <t>pv1_B</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pv1_B</t>
+          <t>pv1_C</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -17009,7 +17009,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pv2_C</t>
+          <t>pv2_B</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -17035,7 +17035,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pv2_B</t>
+          <t>pv2_C</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -17087,7 +17087,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pv3_C</t>
+          <t>pv3_B</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -17113,7 +17113,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pv3_B</t>
+          <t>pv3_C</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -17165,7 +17165,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pv4_C</t>
+          <t>pv4_B</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pv4_B</t>
+          <t>pv4_C</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>s_C</t>
+          <t>s_B</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>s_B</t>
+          <t>s_C</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12704,7 +12704,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5865228330a_B</t>
+          <t>5865228330a_A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -12719,7 +12719,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5865228330a_A</t>
+          <t>5865228330a_C</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -12745,7 +12745,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5865228330a_C</t>
+          <t>5865228330a_B</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5890628219_B</t>
+          <t>5890628219_A</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -12797,7 +12797,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5890628219_A</t>
+          <t>5890628219_C</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5890628219_C</t>
+          <t>5890628219_B</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12849,7 +12849,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6022828946_B</t>
+          <t>6022828946_A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6022828946_A</t>
+          <t>6022828946_C</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6022828946_C</t>
+          <t>6022828946_B</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -13083,7 +13083,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b13649_B</t>
+          <t>b13649_A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b13649_A</t>
+          <t>b13649_C</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -13161,7 +13161,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b13649_C</t>
+          <t>b13649_B</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13187,7 +13187,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b18821_B</t>
+          <t>b18821_A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b18821_A</t>
+          <t>b18821_C</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b18821_C</t>
+          <t>b18821_B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13343,7 +13343,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b18829_B</t>
+          <t>b18829_A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>b18829_A</t>
+          <t>b18829_C</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -13395,7 +13395,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b18829_C</t>
+          <t>b18829_B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b18858_B</t>
+          <t>b18858_A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>b18858_A</t>
+          <t>b18858_C</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -13473,7 +13473,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b18858_C</t>
+          <t>b18858_B</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13499,7 +13499,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b18941_B</t>
+          <t>b18941_A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b18941_A</t>
+          <t>b18941_C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13551,7 +13551,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b18941_C</t>
+          <t>b18941_B</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13577,7 +13577,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>b18948_B</t>
+          <t>b18948_C</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b18948_C</t>
+          <t>b18948_B</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b18967_B</t>
+          <t>b18967_A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13681,7 +13681,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b18967_A</t>
+          <t>b18967_C</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b18967_C</t>
+          <t>b18967_B</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b19028_B</t>
+          <t>b19028_A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>b19028_A</t>
+          <t>b19028_B</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b19042_B</t>
+          <t>b19042_A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>b19042_A</t>
+          <t>b19042_C</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -13837,7 +13837,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b19042_C</t>
+          <t>b19042_B</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -13863,7 +13863,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>b19052_B</t>
+          <t>b19052_A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>b19052_A</t>
+          <t>b19052_C</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>b19052_C</t>
+          <t>b19052_B</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b19183_B</t>
+          <t>b19183_A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>b19183_A</t>
+          <t>b19183_C</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -13993,7 +13993,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b19183_C</t>
+          <t>b19183_B</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14019,7 +14019,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b23208_B</t>
+          <t>b23208_A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>b23208_A</t>
+          <t>b23208_C</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -14097,7 +14097,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>b23208_C</t>
+          <t>b23208_B</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b23283_B</t>
+          <t>b23283_A</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>b23283_A</t>
+          <t>b23283_C</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>b23283_C</t>
+          <t>b23283_B</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -14201,7 +14201,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b2630_B</t>
+          <t>b2630_A</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>b2630_A</t>
+          <t>b2630_C</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -14331,7 +14331,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b2630_C</t>
+          <t>b2630_B</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>b41878_B</t>
+          <t>b41878_A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b41878_A</t>
+          <t>b41878_B</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b43438_B</t>
+          <t>b43438_A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14539,7 +14539,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>b43438_A</t>
+          <t>b43438_B</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>b4541_B</t>
+          <t>b4541_A</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>b4541_A</t>
+          <t>b4541_C</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b4541_C</t>
+          <t>b4541_B</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>b4588_B</t>
+          <t>b4588_A</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -14669,7 +14669,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>b4588_A</t>
+          <t>b4588_C</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b4588_C</t>
+          <t>b4588_B</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b4602_B</t>
+          <t>b4602_A</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>b4602_A</t>
+          <t>b4602_C</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -14773,7 +14773,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b4602_C</t>
+          <t>b4602_B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b4619_B</t>
+          <t>b4619_A</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>b4619_A</t>
+          <t>b4619_C</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b4619_C</t>
+          <t>b4619_B</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b46703_B</t>
+          <t>b46703_A</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>b46703_A</t>
+          <t>b46703_C</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -14929,7 +14929,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b46703_C</t>
+          <t>b46703_B</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -14955,7 +14955,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>b4725_B</t>
+          <t>b4725_C</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>b4725_C</t>
+          <t>b4725_B</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b4760_B</t>
+          <t>b4760_A</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -15059,7 +15059,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>b4760_A</t>
+          <t>b4760_C</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -15085,7 +15085,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>b4760_C</t>
+          <t>b4760_B</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -15111,7 +15111,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>b47668_B</t>
+          <t>b47668_A</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>b47668_A</t>
+          <t>b47668_C</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -15163,7 +15163,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>b47668_C</t>
+          <t>b47668_B</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>b47983_B</t>
+          <t>b47983_C</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b47983_C</t>
+          <t>b47983_B</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b4808_B</t>
+          <t>b4808_A</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -15319,7 +15319,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>b4808_A</t>
+          <t>b4808_C</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -15345,7 +15345,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>b4808_C</t>
+          <t>b4808_B</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b4829_B</t>
+          <t>b4829_A</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>b4829_A</t>
+          <t>b4829_C</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -15423,7 +15423,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b4829_C</t>
+          <t>b4829_B</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b4832_B</t>
+          <t>b4832_A</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -15475,7 +15475,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>b4832_A</t>
+          <t>b4832_C</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -15501,7 +15501,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>b4832_C</t>
+          <t>b4832_B</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b4833_B</t>
+          <t>b4833_A</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -15553,7 +15553,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>b4833_A</t>
+          <t>b4833_C</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -15579,7 +15579,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b4833_C</t>
+          <t>b4833_B</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>b4837_B</t>
+          <t>b4837_A</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>b4837_A</t>
+          <t>b4837_C</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>b4837_C</t>
+          <t>b4837_B</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b4862_B</t>
+          <t>b4862_A</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>b4862_A</t>
+          <t>b4862_C</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -15735,7 +15735,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>b4862_C</t>
+          <t>b4862_B</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -15761,7 +15761,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>b4877_B</t>
+          <t>b4877_A</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>b4877_A</t>
+          <t>b4877_C</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>b4877_C</t>
+          <t>b4877_B</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -15839,7 +15839,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b4888_B</t>
+          <t>b4888_A</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>b4888_A</t>
+          <t>b4888_C</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -15891,7 +15891,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>b4888_C</t>
+          <t>b4888_B</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>b4909_B</t>
+          <t>b4909_A</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>b4909_A</t>
+          <t>b4909_C</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>b4909_C</t>
+          <t>b4909_B</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>b51854_B</t>
+          <t>b51854_A</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>b51854_A</t>
+          <t>b51854_C</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -16047,7 +16047,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>b51854_C</t>
+          <t>b51854_B</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -16073,7 +16073,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b5213_B</t>
+          <t>b5213_A</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -16099,7 +16099,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>b5213_A</t>
+          <t>b5213_C</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>b5213_C</t>
+          <t>b5213_B</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>b5220_B</t>
+          <t>b5220_A</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>b5220_A</t>
+          <t>b5220_C</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>b5220_C</t>
+          <t>b5220_B</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -16229,7 +16229,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b56591_B</t>
+          <t>b56591_A</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>b56591_A</t>
+          <t>b56591_C</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>b56591_C</t>
+          <t>b56591_B</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b61161_B</t>
+          <t>b61161_A</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>b61161_A</t>
+          <t>b61161_C</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -16515,7 +16515,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>b61161_C</t>
+          <t>b61161_B</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>b61423_B</t>
+          <t>b61423_A</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>b61423_A</t>
+          <t>b61423_C</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -16593,7 +16593,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b61423_C</t>
+          <t>b61423_B</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fdr_bus_B</t>
+          <t>fdr_bus_A</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>fdr_bus_A</t>
+          <t>fdr_bus_C</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fdr_bus_C</t>
+          <t>fdr_bus_B</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>feederhead_B</t>
+          <t>feederhead_A</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>feederhead_A</t>
+          <t>feederhead_C</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -16775,7 +16775,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feederhead_C</t>
+          <t>feederhead_B</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -16801,7 +16801,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ls_bus_B</t>
+          <t>ls_bus_A</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -16879,7 +16879,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ls_bus_A</t>
+          <t>ls_bus_C</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ls_bus_C</t>
+          <t>ls_bus_B</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pv1_B</t>
+          <t>pv1_A</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>pv1_A</t>
+          <t>pv1_C</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -16983,7 +16983,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pv1_C</t>
+          <t>pv1_B</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -17009,7 +17009,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pv2_B</t>
+          <t>pv2_A</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -17035,7 +17035,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>pv2_A</t>
+          <t>pv2_C</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pv2_C</t>
+          <t>pv2_B</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -17087,7 +17087,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pv3_B</t>
+          <t>pv3_A</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -17113,7 +17113,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>pv3_A</t>
+          <t>pv3_C</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -17139,7 +17139,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pv3_C</t>
+          <t>pv3_B</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -17165,7 +17165,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pv4_B</t>
+          <t>pv4_A</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>pv4_A</t>
+          <t>pv4_C</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pv4_C</t>
+          <t>pv4_B</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>s_B</t>
+          <t>s_A</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>s_A</t>
+          <t>s_C</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -17295,7 +17295,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>s_C</t>
+          <t>s_B</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/CPYDAR/j1red.xlsx
+++ b/CPYDAR/j1red.xlsx
@@ -1839,10 +1839,10 @@
     <t>Unit (V, pu)</t>
   </si>
   <si>
+    <t>fdr_bus_B</t>
+  </si>
+  <si>
     <t>fdr_bus_A</t>
-  </si>
-  <si>
-    <t>fdr_bus_B</t>
   </si>
   <si>
     <t>fdr_bus_C</t>
@@ -12071,25 +12071,25 @@
         <v>92</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0.1163</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>7199.557856794634</v>
@@ -12878,7 +12878,7 @@
         <v>608</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F4" t="s">
         <v>609</v>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>7199.557856794634</v>
@@ -12898,7 +12898,7 @@
         <v>608</v>
       </c>
       <c r="E5">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>609</v>
@@ -12926,7 +12926,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>7199.557856794634</v>
@@ -12938,7 +12938,7 @@
         <v>608</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F7" t="s">
         <v>609</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B8">
         <v>7199.557856794634</v>
@@ -12958,7 +12958,7 @@
         <v>608</v>
       </c>
       <c r="E8">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>609</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B16">
         <v>7199.557856794634</v>
@@ -13118,7 +13118,7 @@
         <v>608</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F16" t="s">
         <v>609</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="B17">
         <v>7199.557856794634</v>
@@ -13138,7 +13138,7 @@
         <v>608</v>
       </c>
       <c r="E17">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>609</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="B20">
         <v>7199.557856794634</v>
@@ -13198,7 +13198,7 @@
         <v>608</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F20" t="s">
         <v>609</v>
@@ -13206,7 +13206,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B21">
         <v>7199.557856794634</v>
@@ -13218,7 +13218,7 @@
         <v>608</v>
       </c>
       <c r="E21">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>609</v>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>7199.557856794634</v>
@@ -13318,7 +13318,7 @@
         <v>608</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F26" t="s">
         <v>609</v>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B27">
         <v>7199.557856794634</v>
@@ -13338,7 +13338,7 @@
         <v>608</v>
       </c>
       <c r="E27">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>609</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>7199.557856794634</v>
@@ -13378,7 +13378,7 @@
         <v>608</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F29" t="s">
         <v>609</v>
@@ -13386,7 +13386,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B30">
         <v>7199.557856794634</v>
@@ -13398,7 +13398,7 @@
         <v>608</v>
       </c>
       <c r="E30">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>609</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B32">
         <v>7199.557856794634</v>
@@ -13438,7 +13438,7 @@
         <v>608</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F32" t="s">
         <v>609</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="B33">
         <v>7199.557856794634</v>
@@ -13458,7 +13458,7 @@
         <v>608</v>
       </c>
       <c r="E33">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>609</v>
@@ -13486,7 +13486,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B35">
         <v>7199.557856794634</v>
@@ -13498,7 +13498,7 @@
         <v>608</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F35" t="s">
         <v>609</v>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>7199.557856794634</v>
@@ -13518,7 +13518,7 @@
         <v>608</v>
       </c>
       <c r="E36">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>609</v>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B38">
         <v>7199.557856794634</v>
@@ -13558,7 +13558,7 @@
         <v>608</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F38" t="s">
         <v>609</v>
@@ -13566,7 +13566,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>7199.557856794634</v>
@@ -13578,7 +13578,7 @@
         <v>608</v>
       </c>
       <c r="E39">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
         <v>609</v>
@@ -13586,7 +13586,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="B40">
         <v>7199.557856794634</v>
@@ -13598,7 +13598,7 @@
         <v>608</v>
       </c>
       <c r="E40">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>609</v>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B41">
         <v>7199.557856794634</v>
@@ -13618,7 +13618,7 @@
         <v>608</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F41" t="s">
         <v>609</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42">
         <v>7199.557856794634</v>
@@ -13638,7 +13638,7 @@
         <v>608</v>
       </c>
       <c r="E42">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
         <v>609</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>7199.557856794634</v>
@@ -13678,7 +13678,7 @@
         <v>608</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="s">
         <v>609</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>7199.557856794634</v>
@@ -13698,7 +13698,7 @@
         <v>608</v>
       </c>
       <c r="E45">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>609</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B46">
         <v>7199.557856794634</v>
@@ -13718,7 +13718,7 @@
         <v>608</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F46" t="s">
         <v>609</v>
@@ -13726,7 +13726,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>7199.557856794634</v>
@@ -13738,7 +13738,7 @@
         <v>608</v>
       </c>
       <c r="E47">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>609</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B49">
         <v>7199.557856794634</v>
@@ -13778,7 +13778,7 @@
         <v>608</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F49" t="s">
         <v>609</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B50">
         <v>7199.557856794634</v>
@@ -13798,7 +13798,7 @@
         <v>608</v>
       </c>
       <c r="E50">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>609</v>
@@ -13826,7 +13826,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B52">
         <v>7199.557856794634</v>
@@ -13838,7 +13838,7 @@
         <v>608</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F52" t="s">
         <v>609</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="B53">
         <v>7199.557856794634</v>
@@ -13858,7 +13858,7 @@
         <v>608</v>
       </c>
       <c r="E53">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>609</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="B56">
         <v>7199.557856794634</v>
@@ -13918,7 +13918,7 @@
         <v>608</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F56" t="s">
         <v>609</v>
@@ -13926,7 +13926,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B57">
         <v>7199.557856794634</v>
@@ -13938,7 +13938,7 @@
         <v>608</v>
       </c>
       <c r="E57">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>609</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B59">
         <v>7199.557856794634</v>
@@ -13978,7 +13978,7 @@
         <v>608</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F59" t="s">
         <v>609</v>
@@ -13986,7 +13986,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="B60">
         <v>7199.557856794634</v>
@@ -13998,7 +13998,7 @@
         <v>608</v>
       </c>
       <c r="E60">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>609</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="B65">
         <v>7199.557856794634</v>
@@ -14098,7 +14098,7 @@
         <v>608</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F65" t="s">
         <v>609</v>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>7199.557856794634</v>
@@ -14118,7 +14118,7 @@
         <v>608</v>
       </c>
       <c r="E66">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>609</v>
@@ -14226,7 +14226,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72">
         <v>7199.557856794634</v>
@@ -14238,7 +14238,7 @@
         <v>608</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F72" t="s">
         <v>609</v>
@@ -14246,7 +14246,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>7199.557856794634</v>
@@ -14258,7 +14258,7 @@
         <v>608</v>
       </c>
       <c r="E73">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
         <v>609</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>7199.557856794634</v>
@@ -14278,7 +14278,7 @@
         <v>608</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F74" t="s">
         <v>609</v>
@@ -14286,7 +14286,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B75">
         <v>7199.557856794634</v>
@@ -14298,7 +14298,7 @@
         <v>608</v>
       </c>
       <c r="E75">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>609</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="B76">
         <v>7199.557856794634</v>
@@ -14318,7 +14318,7 @@
         <v>608</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F76" t="s">
         <v>609</v>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="B77">
         <v>7199.557856794634</v>
@@ -14338,7 +14338,7 @@
         <v>608</v>
       </c>
       <c r="E77">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>609</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B79">
         <v>7199.557856794634</v>
@@ -14378,7 +14378,7 @@
         <v>608</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F79" t="s">
         <v>609</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B80">
         <v>7199.557856794634</v>
@@ -14398,7 +14398,7 @@
         <v>608</v>
       </c>
       <c r="E80">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>609</v>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="B82">
         <v>7199.557856794634</v>
@@ -14438,7 +14438,7 @@
         <v>608</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F82" t="s">
         <v>609</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="B83">
         <v>7199.557856794634</v>
@@ -14458,7 +14458,7 @@
         <v>608</v>
       </c>
       <c r="E83">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
         <v>609</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="B85">
         <v>7199.557856794634</v>
@@ -14498,7 +14498,7 @@
         <v>608</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F85" t="s">
         <v>609</v>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B86">
         <v>7199.557856794634</v>
@@ -14518,7 +14518,7 @@
         <v>608</v>
       </c>
       <c r="E86">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>609</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="B88">
         <v>7199.557856794634</v>
@@ -14558,7 +14558,7 @@
         <v>608</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F88" t="s">
         <v>609</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B89">
         <v>7199.557856794634</v>
@@ -14578,7 +14578,7 @@
         <v>608</v>
       </c>
       <c r="E89">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>609</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="B91">
         <v>7199.557856794634</v>
@@ -14618,7 +14618,7 @@
         <v>608</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F91" t="s">
         <v>609</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>7199.557856794634</v>
@@ -14638,7 +14638,7 @@
         <v>608</v>
       </c>
       <c r="E92">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F92" t="s">
         <v>609</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="B93">
         <v>7199.557856794634</v>
@@ -14658,7 +14658,7 @@
         <v>608</v>
       </c>
       <c r="E93">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>609</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B94">
         <v>7199.557856794634</v>
@@ -14678,7 +14678,7 @@
         <v>608</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F94" t="s">
         <v>609</v>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B95">
         <v>7199.557856794634</v>
@@ -14698,7 +14698,7 @@
         <v>608</v>
       </c>
       <c r="E95">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>609</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B97">
         <v>7199.557856794634</v>
@@ -14738,7 +14738,7 @@
         <v>608</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F97" t="s">
         <v>609</v>
@@ -14746,7 +14746,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="B98">
         <v>7199.557856794634</v>
@@ -14758,7 +14758,7 @@
         <v>608</v>
       </c>
       <c r="E98">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
         <v>609</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B101">
         <v>7199.557856794634</v>
@@ -14818,7 +14818,7 @@
         <v>608</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F101" t="s">
         <v>609</v>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>481</v>
+        <v>402</v>
       </c>
       <c r="B102">
         <v>7199.557856794634</v>
@@ -14838,7 +14838,7 @@
         <v>608</v>
       </c>
       <c r="E102">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F102" t="s">
         <v>609</v>
@@ -14846,7 +14846,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="B103">
         <v>7199.557856794634</v>
@@ -14858,7 +14858,7 @@
         <v>608</v>
       </c>
       <c r="E103">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
         <v>609</v>
@@ -14866,7 +14866,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B104">
         <v>7199.557856794634</v>
@@ -14878,7 +14878,7 @@
         <v>608</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F104" t="s">
         <v>609</v>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>7199.557856794634</v>
@@ -14898,7 +14898,7 @@
         <v>608</v>
       </c>
       <c r="E105">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
         <v>609</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="B107">
         <v>7199.557856794634</v>
@@ -14938,7 +14938,7 @@
         <v>608</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F107" t="s">
         <v>609</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B108">
         <v>7199.557856794634</v>
@@ -14958,7 +14958,7 @@
         <v>608</v>
       </c>
       <c r="E108">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
         <v>609</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="B110">
         <v>7199.557856794634</v>
@@ -14998,7 +14998,7 @@
         <v>608</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F110" t="s">
         <v>609</v>
@@ -15006,7 +15006,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="B111">
         <v>7199.557856794634</v>
@@ -15018,7 +15018,7 @@
         <v>608</v>
       </c>
       <c r="E111">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
         <v>609</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="B113">
         <v>7199.557856794634</v>
@@ -15058,7 +15058,7 @@
         <v>608</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F113" t="s">
         <v>609</v>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="B114">
         <v>7199.557856794634</v>
@@ -15078,7 +15078,7 @@
         <v>608</v>
       </c>
       <c r="E114">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
         <v>609</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B116">
         <v>7199.557856794634</v>
@@ -15118,7 +15118,7 @@
         <v>608</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F116" t="s">
         <v>609</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B117">
         <v>7199.557856794634</v>
@@ -15138,7 +15138,7 @@
         <v>608</v>
       </c>
       <c r="E117">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
         <v>609</v>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B119">
         <v>7199.557856794634</v>
@@ -15178,7 +15178,7 @@
         <v>608</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F119" t="s">
         <v>609</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B120">
         <v>7199.557856794634</v>
@@ -15198,7 +15198,7 @@
         <v>608</v>
       </c>
       <c r="E120">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F120" t="s">
         <v>609</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B122">
         <v>7199.557856794634</v>
@@ -15238,7 +15238,7 @@
         <v>608</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F122" t="s">
         <v>609</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="B123">
         <v>7199.557856794634</v>
@@ -15258,7 +15258,7 @@
         <v>608</v>
       </c>
       <c r="E123">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
         <v>609</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>7199.557856794634</v>
@@ -15298,7 +15298,7 @@
         <v>608</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F125" t="s">
         <v>609</v>
@@ -15306,7 +15306,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="B126">
         <v>7199.557856794634</v>
@@ -15318,7 +15318,7 @@
         <v>608</v>
       </c>
       <c r="E126">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F126" t="s">
         <v>609</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B128">
         <v>7199.557856794634</v>
@@ -15358,7 +15358,7 @@
         <v>608</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F128" t="s">
         <v>609</v>
@@ -15366,7 +15366,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B129">
         <v>7199.557856794634</v>
@@ -15378,7 +15378,7 @@
         <v>608</v>
       </c>
       <c r="E129">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
         <v>609</v>
@@ -15406,7 +15406,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B131">
         <v>7199.557856794634</v>
@@ -15418,7 +15418,7 @@
         <v>608</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F131" t="s">
         <v>609</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B132">
         <v>7199.557856794634</v>
@@ -15438,7 +15438,7 @@
         <v>608</v>
       </c>
       <c r="E132">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
         <v>609</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B134">
         <v>7199.557856794634</v>
@@ -15478,7 +15478,7 @@
         <v>608</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F134" t="s">
         <v>609</v>
@@ -15486,7 +15486,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B135">
         <v>7199.557856794634</v>
@@ -15498,7 +15498,7 @@
         <v>608</v>
       </c>
       <c r="E135">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
         <v>609</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="B137">
         <v>7199.557856794634</v>
@@ -15538,7 +15538,7 @@
         <v>608</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F137" t="s">
         <v>609</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B138">
         <v>7199.557856794634</v>
@@ -15558,7 +15558,7 @@
         <v>608</v>
       </c>
       <c r="E138">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
         <v>609</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="B141">
         <v>7199.557856794634</v>
@@ -15618,7 +15618,7 @@
         <v>608</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F141" t="s">
         <v>609</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B142">
         <v>7199.557856794634</v>
@@ -15638,7 +15638,7 @@
         <v>608</v>
       </c>
       <c r="E142">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F142" t="s">
         <v>609</v>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B149">
         <v>7199.557856794634</v>
@@ -15778,7 +15778,7 @@
         <v>608</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F149" t="s">
         <v>609</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="B150">
         <v>7199.557856794634</v>
@@ -15798,7 +15798,7 @@
         <v>608</v>
       </c>
       <c r="E150">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F150" t="s">
         <v>609</v>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B152">
         <v>7199.557856794634</v>
@@ -15838,7 +15838,7 @@
         <v>608</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F152" t="s">
         <v>609</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B153">
         <v>7199.557856794634</v>
@@ -15858,7 +15858,7 @@
         <v>608</v>
       </c>
       <c r="E153">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F153" t="s">
         <v>609</v>
@@ -15918,7 +15918,7 @@
         <v>608</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F156" t="s">
         <v>609</v>
@@ -15938,7 +15938,7 @@
         <v>608</v>
       </c>
       <c r="E157">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F157" t="s">
         <v>609</v>
@@ -15966,7 +15966,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B159">
         <v>7199.557856794634</v>
@@ -15978,7 +15978,7 @@
         <v>608</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F159" t="s">
         <v>609</v>
@@ -15986,7 +15986,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="B160">
         <v>7199.557856794634</v>
@@ -15998,7 +15998,7 @@
         <v>608</v>
       </c>
       <c r="E160">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F160" t="s">
         <v>609</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B164">
         <v>7199.557856794634</v>
@@ -16078,7 +16078,7 @@
         <v>608</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F164" t="s">
         <v>609</v>
@@ -16086,7 +16086,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B165">
         <v>7199.557856794634</v>
@@ -16098,7 +16098,7 @@
         <v>608</v>
       </c>
       <c r="E165">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F165" t="s">
         <v>609</v>
@@ -16126,7 +16126,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B167">
         <v>240.1777119828843</v>
@@ -16138,7 +16138,7 @@
         <v>608</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F167" t="s">
         <v>609</v>
@@ -16146,7 +16146,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B168">
         <v>240.1777119828843</v>
@@ -16158,7 +16158,7 @@
         <v>608</v>
       </c>
       <c r="E168">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F168" t="s">
         <v>609</v>
@@ -16186,7 +16186,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B170">
         <v>240.1777119828843</v>
@@ -16198,7 +16198,7 @@
         <v>608</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F170" t="s">
         <v>609</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B171">
         <v>240.1777119828843</v>
@@ -16218,7 +16218,7 @@
         <v>608</v>
       </c>
       <c r="E171">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F171" t="s">
         <v>609</v>
@@ -16246,7 +16246,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B173">
         <v>240.1777119828843</v>
@@ -16258,7 +16258,7 @@
         <v>608</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F173" t="s">
         <v>609</v>
@@ -16266,7 +16266,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B174">
         <v>240.1777119828843</v>
@@ -16278,7 +16278,7 @@
         <v>608</v>
       </c>
       <c r="E174">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F174" t="s">
         <v>609</v>
@@ -16306,7 +16306,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B176">
         <v>240.1777119828843</v>
@@ -16318,7 +16318,7 @@
         <v>608</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F176" t="s">
         <v>609</v>
@@ -16326,7 +16326,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B177">
         <v>240.1777119828843</v>
@@ -16338,7 +16338,7 @@
         <v>608</v>
       </c>
       <c r="E177">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F177" t="s">
         <v>609</v>
@@ -16366,7 +16366,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B179">
         <v>39837.16857408418</v>
@@ -16378,7 +16378,7 @@
         <v>608</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F179" t="s">
         <v>610</v>
@@ -16386,7 +16386,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B180">
         <v>39837.16857408418</v>
@@ -16398,7 +16398,7 @@
         <v>608</v>
       </c>
       <c r="E180">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F180" t="s">
         <v>610</v>
@@ -16453,7 +16453,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B2" t="s">
         <v>236</v>
@@ -16467,7 +16467,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
         <v>273</v>
@@ -16498,7 +16498,7 @@
         <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C5" t="s">
         <v>616</v>
@@ -16512,7 +16512,7 @@
         <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
         <v>617</v>
